--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -60,7 +60,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,20 +70,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -623,7 +623,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -906,7 +906,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -87,13 +87,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -273,6 +273,108 @@
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
@@ -294,108 +396,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -449,55 +449,55 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -562,15 +562,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -578,11 +578,19 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -590,27 +598,19 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -923,76 +923,76 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="24" t="s">
+      <x:c r="B2" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="25" t="s">
+      <x:c r="C2" s="16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="26" t="s">
+      <x:c r="D2" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="26" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="27" t="s">
+      <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="18" t="s"/>
-      <x:c r="C3" s="19" t="s">
+      <x:c r="B3" s="19" t="s"/>
+      <x:c r="C3" s="20" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="22" t="s">
+      <x:c r="D3" s="21" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="22" t="s">
+      <x:c r="E3" s="21" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F3" s="23" t="s">
+      <x:c r="F3" s="22" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="18" t="s"/>
-      <x:c r="C4" s="19" t="s">
+      <x:c r="B4" s="19" t="s"/>
+      <x:c r="C4" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="22" t="b">
+      <x:c r="D4" s="21" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="22" t="b">
+      <x:c r="E4" s="21" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="23" t="b">
+      <x:c r="F4" s="22" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="18" t="s"/>
-      <x:c r="C5" s="19" t="s">
+      <x:c r="B5" s="19" t="s"/>
+      <x:c r="C5" s="20" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D5" s="20">
+      <x:c r="D5" s="23">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E5" s="20">
+      <x:c r="E5" s="23">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="21">
+      <x:c r="F5" s="24">
         <x:v>8020</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="15" t="s"/>
-      <x:c r="C6" s="16" t="s">
+      <x:c r="B6" s="25" t="s"/>
+      <x:c r="C6" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="17" t="n">
+      <x:c r="D6" s="27" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="17" t="n">
+      <x:c r="E6" s="27" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="F6" s="14" t="n">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -403,7 +403,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -486,18 +486,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -410,10 +410,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -461,7 +461,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -479,7 +479,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -498,12 +498,12 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -566,8 +566,8 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -590,8 +590,8 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.590625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="6.640625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.620625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="7.510625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.840625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
